--- a/tests/testthat/fixtures/ex3/tables/irt_poly_booklet2.xlsx
+++ b/tests/testthat/fixtures/ex3/tables/irt_poly_booklet2.xlsx
@@ -154,10 +154,10 @@
     <t xml:space="preserve">step3</t>
   </si>
   <si>
-    <t xml:space="preserve">0.19 (0.112)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.19</t>
+    <t xml:space="preserve">0.17 (0.112)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.17</t>
   </si>
   <si>
     <t xml:space="preserve">0.77 (0.12)</t>
@@ -166,13 +166,13 @@
     <t xml:space="preserve">-0.77</t>
   </si>
   <si>
-    <t xml:space="preserve">1.10 (0.122)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.82 (0.142)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.28</t>
+    <t xml:space="preserve">1.39 (0.122)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-1.03 (0.142)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.36</t>
   </si>
 </sst>
 </file>
@@ -550,13 +550,13 @@
         <v>13</v>
       </c>
       <c r="C2" t="n">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="D2" t="n">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="E2" t="n">
-        <v>81.1</v>
+        <v>80.99</v>
       </c>
       <c r="F2" t="n">
         <v>-1.82</v>
@@ -565,19 +565,19 @@
         <v>0.11</v>
       </c>
       <c r="H2" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="I2" t="n">
-        <v>0.47</v>
+        <v>0.66</v>
       </c>
       <c r="J2" t="n">
         <v>0.23</v>
       </c>
       <c r="K2" t="n">
-        <v>0.06</v>
+        <v>0.07</v>
       </c>
       <c r="L2" t="n">
-        <v>0.94</v>
+        <v>0.86</v>
       </c>
     </row>
     <row r="3">
@@ -588,32 +588,32 @@
         <v>15</v>
       </c>
       <c r="C3" t="n">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="D3" t="n">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="E3"/>
       <c r="F3" t="n">
-        <v>-1.46</v>
+        <v>-1.49</v>
       </c>
       <c r="G3" t="n">
         <v>0.07</v>
       </c>
       <c r="H3" t="n">
-        <v>0.93</v>
+        <v>0.92</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.88</v>
+        <v>-1.02</v>
       </c>
       <c r="J3" t="n">
-        <v>0.31</v>
+        <v>0.33</v>
       </c>
       <c r="K3" t="n">
-        <v>0.07</v>
+        <v>0.06</v>
       </c>
       <c r="L3" t="n">
-        <v>0.95</v>
+        <v>1.01</v>
       </c>
     </row>
     <row r="4">
@@ -624,34 +624,34 @@
         <v>17</v>
       </c>
       <c r="C4" t="n">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="D4" t="n">
-        <v>687</v>
+        <v>689</v>
       </c>
       <c r="E4" t="n">
-        <v>48.33</v>
+        <v>48.62</v>
       </c>
       <c r="F4" t="n">
-        <v>0.09</v>
+        <v>0.07</v>
       </c>
       <c r="G4" t="n">
         <v>0.09</v>
       </c>
       <c r="H4" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="I4" t="n">
         <v>1.03</v>
       </c>
-      <c r="I4" t="n">
-        <v>0.8</v>
-      </c>
       <c r="J4" t="n">
-        <v>0.32</v>
+        <v>0.28</v>
       </c>
       <c r="K4" t="n">
-        <v>0.06</v>
+        <v>0.05</v>
       </c>
       <c r="L4" t="n">
-        <v>1.01</v>
+        <v>0.97</v>
       </c>
     </row>
     <row r="5">
@@ -662,14 +662,14 @@
         <v>19</v>
       </c>
       <c r="C5" t="n">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="D5" t="n">
-        <v>690</v>
+        <v>687</v>
       </c>
       <c r="E5"/>
       <c r="F5" t="n">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="G5" t="n">
         <v>0.05</v>
@@ -678,13 +678,13 @@
         <v>0.92</v>
       </c>
       <c r="I5" t="n">
-        <v>-2.32</v>
+        <v>-2.44</v>
       </c>
       <c r="J5" t="n">
         <v>0.41</v>
       </c>
       <c r="K5" t="n">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="L5" t="n">
         <v>1.03</v>
@@ -698,16 +698,16 @@
         <v>21</v>
       </c>
       <c r="C6" t="n">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="D6" t="n">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="E6" t="n">
-        <v>18.63</v>
+        <v>18.54</v>
       </c>
       <c r="F6" t="n">
-        <v>1.84</v>
+        <v>1.85</v>
       </c>
       <c r="G6" t="n">
         <v>0.11</v>
@@ -716,16 +716,16 @@
         <v>1.07</v>
       </c>
       <c r="I6" t="n">
-        <v>1.12</v>
+        <v>1.08</v>
       </c>
       <c r="J6" t="n">
-        <v>0.21</v>
+        <v>0.2</v>
       </c>
       <c r="K6" t="n">
         <v>0.06</v>
       </c>
       <c r="L6" t="n">
-        <v>0.71</v>
+        <v>0.74</v>
       </c>
     </row>
     <row r="7">
@@ -736,34 +736,34 @@
         <v>23</v>
       </c>
       <c r="C7" t="n">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="D7" t="n">
-        <v>671</v>
+        <v>676</v>
       </c>
       <c r="E7" t="n">
-        <v>63.19</v>
+        <v>63.76</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.68</v>
+        <v>-0.71</v>
       </c>
       <c r="G7" t="n">
         <v>0.09</v>
       </c>
       <c r="H7" t="n">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.86</v>
+        <v>-0.06</v>
       </c>
       <c r="J7" t="n">
-        <v>0.37</v>
+        <v>0.34</v>
       </c>
       <c r="K7" t="n">
-        <v>0.04</v>
+        <v>0.06</v>
       </c>
       <c r="L7" t="n">
-        <v>1.31</v>
+        <v>1.14</v>
       </c>
     </row>
     <row r="8">
@@ -774,16 +774,16 @@
         <v>25</v>
       </c>
       <c r="C8" t="n">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="D8" t="n">
-        <v>633</v>
+        <v>643</v>
       </c>
       <c r="E8" t="n">
-        <v>55.29</v>
+        <v>55.37</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.25</v>
+        <v>-0.27</v>
       </c>
       <c r="G8" t="n">
         <v>0.09</v>
@@ -792,16 +792,16 @@
         <v>1</v>
       </c>
       <c r="I8" t="n">
-        <v>0.03</v>
+        <v>0.09</v>
       </c>
       <c r="J8" t="n">
-        <v>0.36</v>
+        <v>0.38</v>
       </c>
       <c r="K8" t="n">
         <v>0.09</v>
       </c>
       <c r="L8" t="n">
-        <v>1.35</v>
+        <v>1.32</v>
       </c>
     </row>
     <row r="9">
@@ -812,16 +812,16 @@
         <v>27</v>
       </c>
       <c r="C9" t="n">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="D9" t="n">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="E9" t="n">
-        <v>51.61</v>
+        <v>51.04</v>
       </c>
       <c r="F9" t="n">
-        <v>-0.07</v>
+        <v>-0.06</v>
       </c>
       <c r="G9" t="n">
         <v>0.09</v>
@@ -830,16 +830,16 @@
         <v>1.01</v>
       </c>
       <c r="I9" t="n">
-        <v>0.31</v>
+        <v>0.27</v>
       </c>
       <c r="J9" t="n">
-        <v>0.35</v>
+        <v>0.32</v>
       </c>
       <c r="K9" t="n">
         <v>0.08</v>
       </c>
       <c r="L9" t="n">
-        <v>1</v>
+        <v>1.03</v>
       </c>
     </row>
     <row r="10">
@@ -850,34 +850,34 @@
         <v>29</v>
       </c>
       <c r="C10" t="n">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="D10" t="n">
         <v>567</v>
       </c>
       <c r="E10" t="n">
-        <v>46.91</v>
+        <v>47.62</v>
       </c>
       <c r="F10" t="n">
-        <v>0.18</v>
+        <v>0.13</v>
       </c>
       <c r="G10" t="n">
-        <v>0.09</v>
+        <v>0.1</v>
       </c>
       <c r="H10" t="n">
-        <v>1.06</v>
+        <v>1.03</v>
       </c>
       <c r="I10" t="n">
-        <v>1.49</v>
+        <v>0.78</v>
       </c>
       <c r="J10" t="n">
-        <v>0.26</v>
+        <v>0.32</v>
       </c>
       <c r="K10" t="n">
         <v>0.04</v>
       </c>
       <c r="L10" t="n">
-        <v>0.86</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -888,34 +888,34 @@
         <v>31</v>
       </c>
       <c r="C11" t="n">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="D11" t="n">
         <v>485</v>
       </c>
       <c r="E11" t="n">
-        <v>40.62</v>
+        <v>42.47</v>
       </c>
       <c r="F11" t="n">
-        <v>0.48</v>
+        <v>0.37</v>
       </c>
       <c r="G11" t="n">
         <v>0.1</v>
       </c>
       <c r="H11" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="I11" t="n">
-        <v>0.94</v>
+        <v>0.8</v>
       </c>
       <c r="J11" t="n">
-        <v>0.28</v>
+        <v>0.33</v>
       </c>
       <c r="K11" t="n">
-        <v>0.05</v>
+        <v>0.03</v>
       </c>
       <c r="L11" t="n">
-        <v>0.86</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="12">
@@ -926,32 +926,32 @@
         <v>33</v>
       </c>
       <c r="C12" t="n">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="D12" t="n">
-        <v>318</v>
+        <v>336</v>
       </c>
       <c r="E12"/>
       <c r="F12" t="n">
-        <v>-0.3</v>
+        <v>-0.25</v>
       </c>
       <c r="G12" t="n">
         <v>0.05</v>
       </c>
       <c r="H12" t="n">
-        <v>0.94</v>
+        <v>0.92</v>
       </c>
       <c r="I12" t="n">
-        <v>-0.85</v>
+        <v>-1.26</v>
       </c>
       <c r="J12" t="n">
-        <v>0.5</v>
+        <v>0.56</v>
       </c>
       <c r="K12" t="n">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="L12" t="n">
-        <v>0.84</v>
+        <v>0.9</v>
       </c>
     </row>
   </sheetData>
@@ -999,25 +999,25 @@
         <v>41</v>
       </c>
       <c r="B2" t="n">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="C2" t="n">
         <v>16</v>
       </c>
       <c r="D2" t="n">
-        <v>8854</v>
+        <v>8871</v>
       </c>
       <c r="E2" t="n">
-        <v>8886</v>
+        <v>8903</v>
       </c>
       <c r="F2" t="n">
-        <v>8959</v>
+        <v>8976</v>
       </c>
       <c r="G2" t="n">
-        <v>0.671</v>
+        <v>0.675</v>
       </c>
       <c r="H2" t="n">
-        <v>0.584</v>
+        <v>0.581</v>
       </c>
     </row>
     <row r="3">
@@ -1025,25 +1025,25 @@
         <v>42</v>
       </c>
       <c r="B3" t="n">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="C3" t="n">
         <v>26</v>
       </c>
       <c r="D3" t="n">
-        <v>8807</v>
+        <v>8823</v>
       </c>
       <c r="E3" t="n">
-        <v>8859</v>
+        <v>8875</v>
       </c>
       <c r="F3" t="n">
-        <v>8978</v>
+        <v>8994</v>
       </c>
       <c r="G3" t="n">
-        <v>0.69</v>
+        <v>0.692</v>
       </c>
       <c r="H3" t="n">
-        <v>0.592</v>
+        <v>0.583</v>
       </c>
     </row>
   </sheetData>
